--- a/average_satisfaction_divergent_g1.xlsx
+++ b/average_satisfaction_divergent_g1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F373CA1-349E-4FF0-87C3-6BC69BD9D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE2201-3E85-43EE-8004-04559AB39BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F597D2-2B16-4F03-B6DE-F8347701DA56}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{543637A6-C705-48E8-A762-3F38A5836BC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C6B52-A44F-4FBC-B291-24ED2161CA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CCE9E-7B2F-45F9-A699-2A6BF2815D90}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,22 +388,22 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.69961509453412307</v>
+        <v>0.62045946812310648</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0.59776355645189505</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0.79812890876512377</v>
+        <v>0.60580829512335266</v>
       </c>
       <c r="E1">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0.69166768347789609</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="I1">
-        <v>0.69133539178758019</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>0.79270292869875691</v>
+        <v>0.69105657581402458</v>
       </c>
       <c r="K1">
         <v>0</v>
       </c>
       <c r="L1">
-        <v>0.55953405201480277</v>
+        <v>0</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="W1">
-        <v>0.78511846504716076</v>
+        <v>0</v>
       </c>
       <c r="X1">
         <v>0</v>
@@ -466,25 +466,25 @@
         <v>0</v>
       </c>
       <c r="AA1">
-        <v>0</v>
+        <v>0.67450630649411214</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>0.49883926979065463</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>0.69608669049672445</v>
       </c>
       <c r="AD1">
-        <v>0</v>
+        <v>0.66176195729056153</v>
       </c>
       <c r="AE1">
-        <v>0</v>
+        <v>0.60697898515618498</v>
       </c>
       <c r="AF1">
-        <v>0</v>
+        <v>0.57590671009024097</v>
       </c>
       <c r="AG1">
-        <v>0</v>
+        <v>0.85193300758059742</v>
       </c>
       <c r="AH1">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="AM1">
-        <v>0</v>
+        <v>0.65798492221627669</v>
       </c>
       <c r="AN1">
         <v>0</v>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="AV1">
-        <v>0.7832238717564648</v>
+        <v>0</v>
       </c>
       <c r="AW1">
-        <v>0.48475039527828934</v>
+        <v>0.6053083236618032</v>
       </c>
       <c r="AX1">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="BA1">
-        <v>0.52270285441812636</v>
+        <v>0.70439752782563025</v>
       </c>
       <c r="BB1">
-        <v>0</v>
+        <v>0.63104693074093032</v>
       </c>
       <c r="BC1">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="BE1">
-        <v>0.61883075341438931</v>
+        <v>0</v>
       </c>
       <c r="BF1">
-        <v>0</v>
+        <v>0.71880162960428784</v>
       </c>
       <c r="BG1">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="BN1">
-        <v>0</v>
+        <v>0.53017117904896516</v>
       </c>
       <c r="BO1">
-        <v>0</v>
+        <v>0.73397647639926611</v>
       </c>
       <c r="BP1">
         <v>0</v>
       </c>
       <c r="BQ1">
-        <v>0.4882291529803649</v>
+        <v>0</v>
       </c>
       <c r="BR1">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="BW1">
-        <v>0</v>
+        <v>0.43719403146826719</v>
       </c>
       <c r="BX1">
-        <v>0</v>
+        <v>0.65222248543830785</v>
       </c>
       <c r="BY1">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="CB1">
-        <v>0.66324313223679399</v>
+        <v>0</v>
       </c>
       <c r="CC1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="CE1">
-        <v>0</v>
+        <v>0.8332973009141571</v>
       </c>
       <c r="CF1">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="CM1">
-        <v>0</v>
+        <v>0.68669253754950499</v>
       </c>
       <c r="CN1">
-        <v>0.73773534033110955</v>
+        <v>0.51907476641344319</v>
       </c>
       <c r="CO1">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="CQ1">
-        <v>0.71874961046406338</v>
+        <v>0</v>
       </c>
       <c r="CR1">
         <v>0</v>
       </c>
       <c r="CS1">
-        <v>0</v>
+        <v>0.60204137587938478</v>
       </c>
       <c r="CT1">
         <v>0</v>
